--- a/data/2019/Fell/Extracted Clougha Pike.xlsx
+++ b/data/2019/Fell/Extracted Clougha Pike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2019\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0703750-0D5A-4741-9027-5A3E48787484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B284C5-B967-4BBC-BCD2-282A1B89869C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>Vet</t>
   </si>
@@ -1191,6 +1191,21 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1206,21 +1221,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1751,19 +1751,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="N1" s="8" t="s">
         <v>28</v>
       </c>
@@ -1820,103 +1820,103 @@
     </row>
     <row r="4" spans="1:15" ht="11.45" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="47">
+      <c r="B4" s="41">
         <v>9</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="38" t="s">
         <v>118</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L4" s="8"/>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="11.45" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="47">
+      <c r="B5" s="41">
         <v>16</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="40">
         <v>2</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="40">
         <v>1</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="40">
         <v>1</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="38" t="s">
         <v>120</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L5" s="8"/>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="11.45" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="47">
+      <c r="B6" s="41">
         <v>21</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="40">
         <v>3</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="40">
         <v>2</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="38" t="s">
         <v>118</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L6" s="8"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="15" customFormat="1" ht="11.45" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="47">
+      <c r="B7" s="41">
         <v>28</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="40">
         <v>4</v>
       </c>
       <c r="D7" s="28"/>
@@ -1924,1047 +1924,1047 @@
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="38" t="s">
         <v>123</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="39" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="11.45" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="47">
+      <c r="B8" s="41">
         <v>30</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="40">
         <v>5</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="40">
         <v>3</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="38" t="s">
         <v>125</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="11.45" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="47">
+      <c r="B9" s="41">
         <v>33</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="40">
         <v>6</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="38" t="s">
         <v>127</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="39" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="11.45" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="47">
+      <c r="B10" s="41">
         <v>36</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="40">
         <v>7</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="46">
+      <c r="G10" s="40">
         <v>1</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="38" t="s">
         <v>129</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="38" t="s">
         <v>112</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="11.45" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="47">
+      <c r="B11" s="41">
         <v>51</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="40">
         <v>8</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="40">
         <v>4</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="40">
         <v>2</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="38" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="39" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="11.45" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="47">
+      <c r="B12" s="41">
         <v>57</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="40">
         <v>9</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="40">
         <v>5</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="40">
         <v>3</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="40">
         <v>1</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="I12" s="44" t="s">
+      <c r="G12" s="42"/>
+      <c r="I12" s="38" t="s">
         <v>131</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="38" t="s">
         <v>113</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="39" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="11.45" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="47">
+      <c r="B13" s="41">
         <v>69</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="40">
         <v>10</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="38" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L13" s="8"/>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="11.45" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="47">
+      <c r="B14" s="41">
         <v>74</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="40">
         <v>11</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="40">
         <v>6</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="38" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="11.45" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="47">
+      <c r="B15" s="41">
         <v>75</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="40">
         <v>12</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="40">
         <v>7</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="40">
         <v>4</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="38" t="s">
         <v>45</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L15" s="8"/>
-      <c r="N15" s="44" t="s">
+      <c r="N15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="11.45" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="47">
+      <c r="B16" s="41">
         <v>79</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="40">
         <v>13</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="40">
         <v>8</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="40">
         <v>5</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="38" t="s">
         <v>53</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="39" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="11.45" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="47">
+      <c r="B17" s="41">
         <v>80</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="40">
         <v>14</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="40">
         <v>9</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="38" t="s">
         <v>134</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="N17" s="44" t="s">
+      <c r="N17" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="39" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="11.45" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="47">
+      <c r="B18" s="41">
         <v>83</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="40">
         <v>15</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="40">
         <v>10</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="38" t="s">
         <v>135</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="45" t="s">
+      <c r="O18" s="39" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="11.45" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="47">
+      <c r="B19" s="41">
         <v>89</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="40">
         <v>16</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="40">
         <v>11</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="40">
         <v>6</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="38" t="s">
         <v>136</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="45" t="s">
+      <c r="O19" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="11.45" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="47">
+      <c r="B20" s="41">
         <v>93</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="40">
         <v>17</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="40">
         <v>12</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="38" t="s">
         <v>137</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="8"/>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="11.45" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="47">
+      <c r="B21" s="41">
         <v>96</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="40">
         <v>18</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="40">
         <v>13</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="38" t="s">
         <v>41</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="38" t="s">
         <v>111</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="11.45" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="47">
+      <c r="B22" s="41">
         <v>97</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="40">
         <v>19</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="38" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L22" s="8"/>
-      <c r="N22" s="44" t="s">
+      <c r="N22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="39" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="11.45" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="47">
+      <c r="B23" s="41">
         <v>98</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="40">
         <v>20</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="38" t="s">
         <v>140</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="N23" s="44" t="s">
+      <c r="N23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="39" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="11.45" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="47">
+      <c r="B24" s="41">
         <v>105</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="40">
         <v>21</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="40">
         <v>14</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="40">
         <v>7</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="38" t="s">
         <v>118</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="8"/>
-      <c r="N24" s="44" t="s">
+      <c r="N24" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="45" t="s">
+      <c r="O24" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="11.45" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="47">
+      <c r="B25" s="41">
         <v>108</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="40">
         <v>22</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="40">
         <v>15</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="40">
         <v>8</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="38" t="s">
         <v>58</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L25" s="8"/>
-      <c r="N25" s="44" t="s">
+      <c r="N25" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="11.45" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="47">
+      <c r="B26" s="41">
         <v>121</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="40">
         <v>23</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="38" t="s">
         <v>56</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L26" s="8"/>
-      <c r="N26" s="44" t="s">
+      <c r="N26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="11.45" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="47">
+      <c r="B27" s="41">
         <v>122</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="40">
         <v>24</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="46">
+      <c r="G27" s="40">
         <v>2</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="38" t="s">
         <v>142</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="38" t="s">
         <v>112</v>
       </c>
       <c r="L27" s="8"/>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="11.45" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="47">
+      <c r="B28" s="41">
         <v>123</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="40">
         <v>25</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="38" t="s">
         <v>42</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="38" t="s">
         <v>109</v>
       </c>
       <c r="L28" s="8"/>
-      <c r="N28" s="44" t="s">
+      <c r="N28" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O28" s="45" t="s">
+      <c r="O28" s="39" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="11.45" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="47">
+      <c r="B29" s="41">
         <v>127</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="40">
         <v>26</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="46">
+      <c r="G29" s="40">
         <v>3</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="38" t="s">
         <v>145</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="44" t="s">
+      <c r="K29" s="38" t="s">
         <v>112</v>
       </c>
       <c r="L29" s="8"/>
-      <c r="N29" s="44" t="s">
+      <c r="N29" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="39" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="11.45" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="47">
+      <c r="B30" s="41">
         <v>131</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="40">
         <v>27</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="40">
         <v>16</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="40">
         <v>9</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="40">
         <v>2</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="I30" s="44" t="s">
+      <c r="G30" s="42"/>
+      <c r="I30" s="38" t="s">
         <v>43</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="K30" s="38" t="s">
         <v>113</v>
       </c>
       <c r="L30" s="8"/>
-      <c r="N30" s="44" t="s">
+      <c r="N30" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="39" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="11.45" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="47">
+      <c r="B31" s="41">
         <v>139</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="40">
         <v>28</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="46">
+      <c r="G31" s="40">
         <v>4</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="38" t="s">
         <v>146</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="44" t="s">
+      <c r="K31" s="38" t="s">
         <v>112</v>
       </c>
       <c r="L31" s="8"/>
-      <c r="N31" s="44" t="s">
+      <c r="N31" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O31" s="45" t="s">
+      <c r="O31" s="39" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="11.45" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="47">
+      <c r="B32" s="41">
         <v>144</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="40">
         <v>29</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="40">
         <v>17</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="46">
+      <c r="G32" s="40">
         <v>5</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="38" t="s">
         <v>61</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K32" s="44" t="s">
+      <c r="K32" s="38" t="s">
         <v>114</v>
       </c>
       <c r="L32" s="8"/>
-      <c r="N32" s="44" t="s">
+      <c r="N32" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="39" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="11.45" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="47">
+      <c r="B33" s="41">
         <v>147</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="40">
         <v>30</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="40">
         <v>18</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="40">
         <v>10</v>
       </c>
       <c r="F33" s="28"/>
-      <c r="G33" s="46">
+      <c r="G33" s="40">
         <v>6</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="38" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="38" t="s">
         <v>115</v>
       </c>
       <c r="L33" s="8"/>
-      <c r="N33" s="44" t="s">
+      <c r="N33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="39" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="11.45" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="47">
+      <c r="B34" s="41">
         <v>150</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="40">
         <v>31</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="40">
         <v>19</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="40">
         <v>11</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="40">
         <v>3</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="40">
         <v>7</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="38" t="s">
         <v>148</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="44" t="s">
+      <c r="K34" s="38" t="s">
         <v>116</v>
       </c>
       <c r="L34" s="8"/>
-      <c r="N34" s="44" t="s">
+      <c r="N34" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="11.45" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="47">
+      <c r="B35" s="41">
         <v>153</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="40">
         <v>32</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="40">
         <v>20</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="46">
+      <c r="G35" s="40">
         <v>8</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="38" t="s">
         <v>150</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="38" t="s">
         <v>114</v>
       </c>
       <c r="L35" s="8"/>
-      <c r="N35" s="44" t="s">
+      <c r="N35" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="O35" s="39" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="11.45" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="47">
+      <c r="B36" s="41">
         <v>155</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="40">
         <v>33</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="40">
         <v>21</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="40">
         <v>12</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="38" t="s">
         <v>40</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="38" t="s">
         <v>110</v>
       </c>
       <c r="L36" s="8"/>
-      <c r="N36" s="44" t="s">
+      <c r="N36" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="39" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="11.45" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="47">
+      <c r="B37" s="41">
         <v>156</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="40">
         <v>34</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="40">
         <v>22</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="46">
+      <c r="G37" s="40">
         <v>9</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="38" t="s">
         <v>152</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K37" s="44" t="s">
+      <c r="K37" s="38" t="s">
         <v>114</v>
       </c>
       <c r="L37" s="8"/>
-      <c r="N37" s="44" t="s">
+      <c r="N37" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O37" s="45" t="s">
+      <c r="O37" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="11.45" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="47">
+      <c r="B38" s="41">
         <v>157</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="40">
         <v>35</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="40">
         <v>23</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="40">
         <v>13</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="40">
         <v>4</v>
       </c>
-      <c r="G38" s="48"/>
-      <c r="I38" s="44" t="s">
+      <c r="G38" s="42"/>
+      <c r="I38" s="38" t="s">
         <v>154</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K38" s="44" t="s">
+      <c r="K38" s="38" t="s">
         <v>117</v>
       </c>
       <c r="L38" s="8"/>
-      <c r="N38" s="44" t="s">
+      <c r="N38" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O38" s="45" t="s">
+      <c r="O38" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="11.45" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="47">
+      <c r="B39" s="41">
         <v>160</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="40">
         <v>36</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="40">
         <v>24</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="40">
         <v>14</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="40">
         <v>5</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="I39" s="44" t="s">
+      <c r="G39" s="42"/>
+      <c r="I39" s="38" t="s">
         <v>156</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="44" t="s">
+      <c r="K39" s="38" t="s">
         <v>113</v>
       </c>
       <c r="L39" s="8"/>
-      <c r="N39" s="44" t="s">
+      <c r="N39" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O39" s="45" t="s">
+      <c r="O39" s="39" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -8213,8 +8213,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.25"/>
@@ -8246,9 +8246,6 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -8256,9 +8253,6 @@
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -8266,9 +8260,6 @@
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -8276,9 +8267,6 @@
       <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -8286,9 +8274,6 @@
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -8296,9 +8281,6 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:12" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -8306,9 +8288,6 @@
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:12" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -8322,9 +8301,6 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -8332,9 +8308,6 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -8342,9 +8315,6 @@
       <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -8352,9 +8322,6 @@
       <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -8362,9 +8329,6 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:12" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -8372,9 +8336,6 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -8382,9 +8343,6 @@
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:12" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -8404,9 +8362,6 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="14.25">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -8414,9 +8369,6 @@
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:12" ht="14.25">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -8424,9 +8376,6 @@
       <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:12" ht="14.25">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
@@ -8434,9 +8383,6 @@
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:12" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
@@ -8444,9 +8390,6 @@
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:12" ht="14.25">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -8454,9 +8397,6 @@
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:12" ht="14.25">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -8464,9 +8404,6 @@
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:12" ht="14.25">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
@@ -8480,9 +8417,6 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="14.25">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -8490,9 +8424,6 @@
       <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:12" ht="14.25">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -8500,9 +8431,6 @@
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:12" ht="14.25">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -8510,9 +8438,6 @@
       <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:12" ht="14.25">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -8520,9 +8445,6 @@
       <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:12" ht="14.25">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -8530,9 +8452,6 @@
       <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:12" ht="14.25">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -8540,9 +8459,6 @@
       <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:12" ht="14.25">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -8555,70 +8471,49 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="49" spans="2:6" ht="14.25">
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="50" spans="2:6" ht="14.25">
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="51" spans="2:6" ht="14.25">
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25">
-      <c r="A52" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="52" spans="2:6" ht="14.25">
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="53" spans="2:6" ht="14.25">
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="54" spans="2:6" ht="14.25">
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="55" spans="2:6" ht="14.25">
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
